--- a/data/pca/factorExposure/factorExposure_2015-06-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01848878443480051</v>
+        <v>0.007260262241192353</v>
       </c>
       <c r="C2">
-        <v>-0.01947207833560385</v>
+        <v>0.04793739390333727</v>
       </c>
       <c r="D2">
-        <v>0.1083758790990246</v>
+        <v>0.1312612494026148</v>
       </c>
       <c r="E2">
-        <v>-0.005900034040432452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02918207051379289</v>
+      </c>
+      <c r="F2">
+        <v>0.03264651072065632</v>
+      </c>
+      <c r="G2">
+        <v>-0.1297533978112205</v>
+      </c>
+      <c r="H2">
+        <v>0.02898233871214951</v>
+      </c>
+      <c r="I2">
+        <v>-0.04994444458265332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.00511377107447491</v>
+        <v>-0.003980790398881205</v>
       </c>
       <c r="C3">
-        <v>-0.003200589316694491</v>
+        <v>-0.0009271657858675357</v>
       </c>
       <c r="D3">
-        <v>-0.003327211028152578</v>
+        <v>0.002962993792168145</v>
       </c>
       <c r="E3">
-        <v>-0.002030844467697863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.007573877442186946</v>
+      </c>
+      <c r="F3">
+        <v>-0.001434531192362552</v>
+      </c>
+      <c r="G3">
+        <v>0.0006554770570548443</v>
+      </c>
+      <c r="H3">
+        <v>-0.008598134475019633</v>
+      </c>
+      <c r="I3">
+        <v>0.01113602834498183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04684870300970928</v>
+        <v>0.01612371469333227</v>
       </c>
       <c r="C4">
-        <v>-0.06934000416931532</v>
+        <v>0.1010597715688518</v>
       </c>
       <c r="D4">
-        <v>0.1338556093846859</v>
+        <v>0.13574321565515</v>
       </c>
       <c r="E4">
-        <v>-0.08097634646991451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01358980476682007</v>
+      </c>
+      <c r="F4">
+        <v>0.09288773717588836</v>
+      </c>
+      <c r="G4">
+        <v>-0.01035759378203305</v>
+      </c>
+      <c r="H4">
+        <v>0.04961249962612777</v>
+      </c>
+      <c r="I4">
+        <v>0.06932201894906916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02317469598063675</v>
+        <v>0.02454126157515349</v>
       </c>
       <c r="C6">
-        <v>-0.01178849224236088</v>
+        <v>0.03218335868916626</v>
       </c>
       <c r="D6">
-        <v>0.1378107631037848</v>
+        <v>0.1220755046413654</v>
       </c>
       <c r="E6">
-        <v>-0.03468536771350172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0627126345567308</v>
+      </c>
+      <c r="F6">
+        <v>0.04619766606891502</v>
+      </c>
+      <c r="G6">
+        <v>-0.00623789618034195</v>
+      </c>
+      <c r="H6">
+        <v>0.05540277658358536</v>
+      </c>
+      <c r="I6">
+        <v>0.0121213008595651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.005872954851832602</v>
+        <v>0.007301076858837499</v>
       </c>
       <c r="C7">
-        <v>-0.0212444383927406</v>
+        <v>0.03267165361654223</v>
       </c>
       <c r="D7">
-        <v>0.1114414370839202</v>
+        <v>0.09593530788593088</v>
       </c>
       <c r="E7">
-        <v>-0.002356452512580204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.06002823485457406</v>
+      </c>
+      <c r="F7">
+        <v>0.008491592017845381</v>
+      </c>
+      <c r="G7">
+        <v>-0.004566958132208155</v>
+      </c>
+      <c r="H7">
+        <v>0.07711967480187978</v>
+      </c>
+      <c r="I7">
+        <v>-0.003814299698211832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003685478525833281</v>
+        <v>-0.01219341231552776</v>
       </c>
       <c r="C8">
-        <v>-0.02520486377391608</v>
+        <v>0.02998410022920273</v>
       </c>
       <c r="D8">
-        <v>0.08093239383149499</v>
+        <v>0.07286735448199898</v>
       </c>
       <c r="E8">
-        <v>-0.02499832054229451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04017428075798394</v>
+      </c>
+      <c r="F8">
+        <v>0.05240459486376375</v>
+      </c>
+      <c r="G8">
+        <v>-0.0615560411967729</v>
+      </c>
+      <c r="H8">
+        <v>-0.005154239321153866</v>
+      </c>
+      <c r="I8">
+        <v>-0.01643343016854039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03919274517383083</v>
+        <v>0.01133616385236565</v>
       </c>
       <c r="C9">
-        <v>-0.05924747955200501</v>
+        <v>0.08439896848722059</v>
       </c>
       <c r="D9">
-        <v>0.1329005460375501</v>
+        <v>0.1181250316786775</v>
       </c>
       <c r="E9">
-        <v>-0.06403051230072331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01600062831976016</v>
+      </c>
+      <c r="F9">
+        <v>0.06118155921138035</v>
+      </c>
+      <c r="G9">
+        <v>0.00497351358317509</v>
+      </c>
+      <c r="H9">
+        <v>0.06830044583087666</v>
+      </c>
+      <c r="I9">
+        <v>0.03199183496552183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.156970682787459</v>
+        <v>0.2366657688150328</v>
       </c>
       <c r="C10">
-        <v>0.1785728904277528</v>
+        <v>-0.09447800719388029</v>
       </c>
       <c r="D10">
-        <v>0.009350213308153658</v>
+        <v>-0.005479271896231681</v>
       </c>
       <c r="E10">
-        <v>-0.04693134871566324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01362821074291271</v>
+      </c>
+      <c r="F10">
+        <v>0.04606396940911878</v>
+      </c>
+      <c r="G10">
+        <v>-0.001475127674538482</v>
+      </c>
+      <c r="H10">
+        <v>-0.05619233521138366</v>
+      </c>
+      <c r="I10">
+        <v>-0.07704203275981591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02129332400217158</v>
+        <v>0.007457319512659173</v>
       </c>
       <c r="C11">
-        <v>-0.03889725086958081</v>
+        <v>0.05176309928098762</v>
       </c>
       <c r="D11">
-        <v>0.04977547704388945</v>
+        <v>0.04171008847078226</v>
       </c>
       <c r="E11">
-        <v>0.01629597856081264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02243883513002815</v>
+      </c>
+      <c r="F11">
+        <v>-0.01313855579681846</v>
+      </c>
+      <c r="G11">
+        <v>-0.002378641264830044</v>
+      </c>
+      <c r="H11">
+        <v>0.04607766084882392</v>
+      </c>
+      <c r="I11">
+        <v>0.05792605545259302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02227719040238021</v>
+        <v>0.008585301895478542</v>
       </c>
       <c r="C12">
-        <v>-0.03900615921427086</v>
+        <v>0.04814476714929513</v>
       </c>
       <c r="D12">
-        <v>0.06260837032082259</v>
+        <v>0.04800256111273512</v>
       </c>
       <c r="E12">
-        <v>0.006496464869287676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01850925416485641</v>
+      </c>
+      <c r="F12">
+        <v>-0.01604237353979631</v>
+      </c>
+      <c r="G12">
+        <v>0.01136407293439759</v>
+      </c>
+      <c r="H12">
+        <v>0.07412016296911471</v>
+      </c>
+      <c r="I12">
+        <v>0.03025223314841023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005782892967405509</v>
+        <v>-0.006663883637264466</v>
       </c>
       <c r="C13">
-        <v>-0.02278350790555056</v>
+        <v>0.04225310790119189</v>
       </c>
       <c r="D13">
-        <v>0.1475852347163674</v>
+        <v>0.1460660691228721</v>
       </c>
       <c r="E13">
-        <v>-0.03231744049853934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04574798323167199</v>
+      </c>
+      <c r="F13">
+        <v>0.03228386850797313</v>
+      </c>
+      <c r="G13">
+        <v>-0.03154017880329971</v>
+      </c>
+      <c r="H13">
+        <v>0.0590226552532897</v>
+      </c>
+      <c r="I13">
+        <v>-0.09648988723825816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003161731024055133</v>
+        <v>-0.001313003387590539</v>
       </c>
       <c r="C14">
-        <v>-0.01694798246614939</v>
+        <v>0.0260962418598084</v>
       </c>
       <c r="D14">
-        <v>0.09988712060867762</v>
+        <v>0.09898806569068754</v>
       </c>
       <c r="E14">
-        <v>-0.00977980407630279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05094734274478175</v>
+      </c>
+      <c r="F14">
+        <v>0.03547235900731108</v>
+      </c>
+      <c r="G14">
+        <v>-0.03964526285138528</v>
+      </c>
+      <c r="H14">
+        <v>0.1230861168538646</v>
+      </c>
+      <c r="I14">
+        <v>-0.007396973088989747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001448399625298969</v>
+        <v>-0.002706451848552312</v>
       </c>
       <c r="C15">
-        <v>-0.01007515097243047</v>
+        <v>0.0203318953903623</v>
       </c>
       <c r="D15">
-        <v>0.02845663230345718</v>
+        <v>0.05400498417795652</v>
       </c>
       <c r="E15">
-        <v>0.003714548346933677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01208797361918555</v>
+      </c>
+      <c r="F15">
+        <v>0.005953083017240646</v>
+      </c>
+      <c r="G15">
+        <v>-0.02595676823608135</v>
+      </c>
+      <c r="H15">
+        <v>0.02226730342771926</v>
+      </c>
+      <c r="I15">
+        <v>0.0241328677910738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02134719435254772</v>
+        <v>0.00843042779255352</v>
       </c>
       <c r="C16">
-        <v>-0.03691720092917711</v>
+        <v>0.04777699131563975</v>
       </c>
       <c r="D16">
-        <v>0.05613431805283159</v>
+        <v>0.04311965125724986</v>
       </c>
       <c r="E16">
-        <v>0.00925687877377411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02382321630406481</v>
+      </c>
+      <c r="F16">
+        <v>-0.009954774525888716</v>
+      </c>
+      <c r="G16">
+        <v>0.008844029965093644</v>
+      </c>
+      <c r="H16">
+        <v>0.05376017079641152</v>
+      </c>
+      <c r="I16">
+        <v>0.05239696355309637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.005806125289977598</v>
+        <v>-0.0002123548447573319</v>
       </c>
       <c r="C19">
-        <v>-0.01987744057404102</v>
+        <v>0.01857454378812787</v>
       </c>
       <c r="D19">
-        <v>0.1055330685630289</v>
+        <v>0.06788184693827168</v>
       </c>
       <c r="E19">
-        <v>-0.04050830432080057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.008226797426988374</v>
+      </c>
+      <c r="F19">
+        <v>0.01535234178421766</v>
+      </c>
+      <c r="G19">
+        <v>-0.02372671078043602</v>
+      </c>
+      <c r="H19">
+        <v>0.06116439312896323</v>
+      </c>
+      <c r="I19">
+        <v>-0.04470439940765693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004538440651100485</v>
+        <v>0.003110279755536574</v>
       </c>
       <c r="C20">
-        <v>-0.02385190396034873</v>
+        <v>0.03698366273211911</v>
       </c>
       <c r="D20">
-        <v>0.08872165334315389</v>
+        <v>0.09297789331776003</v>
       </c>
       <c r="E20">
-        <v>-0.03408609968071775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02512611161582259</v>
+      </c>
+      <c r="F20">
+        <v>0.02979460845587139</v>
+      </c>
+      <c r="G20">
+        <v>-0.005788465302831868</v>
+      </c>
+      <c r="H20">
+        <v>0.05919482647215109</v>
+      </c>
+      <c r="I20">
+        <v>0.03162752573100609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008707664331753</v>
+        <v>0.001763112257031787</v>
       </c>
       <c r="C21">
-        <v>-0.02848554875017816</v>
+        <v>0.03934824330044082</v>
       </c>
       <c r="D21">
-        <v>0.1670106047954331</v>
+        <v>0.1277322233695125</v>
       </c>
       <c r="E21">
-        <v>-0.07140770886071698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0344974869776269</v>
+      </c>
+      <c r="F21">
+        <v>0.09449546936017955</v>
+      </c>
+      <c r="G21">
+        <v>-0.05572227743707327</v>
+      </c>
+      <c r="H21">
+        <v>0.1902845497458577</v>
+      </c>
+      <c r="I21">
+        <v>-0.1569967598402697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001566505877385333</v>
+        <v>-0.01358735688674593</v>
       </c>
       <c r="C22">
-        <v>-0.06127253902096613</v>
+        <v>0.08195147397803298</v>
       </c>
       <c r="D22">
-        <v>0.2380759035019724</v>
+        <v>0.2704438625351589</v>
       </c>
       <c r="E22">
-        <v>0.02158068716339906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06451855976503401</v>
+      </c>
+      <c r="F22">
+        <v>0.0291878978953674</v>
+      </c>
+      <c r="G22">
+        <v>-0.2578192539450606</v>
+      </c>
+      <c r="H22">
+        <v>-0.4556613983077436</v>
+      </c>
+      <c r="I22">
+        <v>0.1080804971121702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001833938101748668</v>
+        <v>-0.01322876714932414</v>
       </c>
       <c r="C23">
-        <v>-0.06175721388674348</v>
+        <v>0.08299179478517635</v>
       </c>
       <c r="D23">
-        <v>0.2376514409995779</v>
+        <v>0.2713516357018672</v>
       </c>
       <c r="E23">
-        <v>0.02142326260871996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06143673915940365</v>
+      </c>
+      <c r="F23">
+        <v>0.02930119757988702</v>
+      </c>
+      <c r="G23">
+        <v>-0.2577166815515359</v>
+      </c>
+      <c r="H23">
+        <v>-0.4553186534797837</v>
+      </c>
+      <c r="I23">
+        <v>0.1083968359117848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02792728762703879</v>
+        <v>0.007816725430816423</v>
       </c>
       <c r="C24">
-        <v>-0.05525049863120803</v>
+        <v>0.06439545289455809</v>
       </c>
       <c r="D24">
-        <v>0.06878877109032444</v>
+        <v>0.04997743844335494</v>
       </c>
       <c r="E24">
-        <v>0.004994824256756734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03234889351619959</v>
+      </c>
+      <c r="F24">
+        <v>-0.00550086997364355</v>
+      </c>
+      <c r="G24">
+        <v>-0.005075669496519071</v>
+      </c>
+      <c r="H24">
+        <v>0.07629805904564607</v>
+      </c>
+      <c r="I24">
+        <v>0.04710385927317827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02902775361078315</v>
+        <v>0.01147370497044207</v>
       </c>
       <c r="C25">
-        <v>-0.04627392834876797</v>
+        <v>0.059298953306501</v>
       </c>
       <c r="D25">
-        <v>0.06044290666082786</v>
+        <v>0.04908162170268819</v>
       </c>
       <c r="E25">
-        <v>0.001177101401541443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01639633236413621</v>
+      </c>
+      <c r="F25">
+        <v>-0.007029139004775398</v>
+      </c>
+      <c r="G25">
+        <v>0.005575896048356262</v>
+      </c>
+      <c r="H25">
+        <v>0.04459150697731093</v>
+      </c>
+      <c r="I25">
+        <v>0.03464671047249588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008794196908183881</v>
+        <v>0.01014290680770631</v>
       </c>
       <c r="C26">
-        <v>-0.01326721876545934</v>
+        <v>0.02241830634136773</v>
       </c>
       <c r="D26">
-        <v>0.08023694298158997</v>
+        <v>0.06282375241714125</v>
       </c>
       <c r="E26">
-        <v>-0.01942521623798051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04274946490159785</v>
+      </c>
+      <c r="F26">
+        <v>0.0410233792060954</v>
+      </c>
+      <c r="G26">
+        <v>-0.02161169716869809</v>
+      </c>
+      <c r="H26">
+        <v>0.09355189928521468</v>
+      </c>
+      <c r="I26">
+        <v>-0.04643064968183178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2418098829968006</v>
+        <v>0.3211935474169742</v>
       </c>
       <c r="C28">
-        <v>0.2178107497394151</v>
+        <v>-0.0911112366799194</v>
       </c>
       <c r="D28">
-        <v>0.01664052680077499</v>
+        <v>-0.004936650188287228</v>
       </c>
       <c r="E28">
-        <v>-0.06559297518119994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04834233288510066</v>
+      </c>
+      <c r="F28">
+        <v>0.04889419647549952</v>
+      </c>
+      <c r="G28">
+        <v>-0.03759514330682001</v>
+      </c>
+      <c r="H28">
+        <v>-0.01396375011040196</v>
+      </c>
+      <c r="I28">
+        <v>-0.1177648483401061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0006022206428582597</v>
+        <v>-0.00343017425645733</v>
       </c>
       <c r="C29">
-        <v>-0.02051866011232314</v>
+        <v>0.02937192487135656</v>
       </c>
       <c r="D29">
-        <v>0.09746500296020529</v>
+        <v>0.09495400830770362</v>
       </c>
       <c r="E29">
-        <v>-0.01442183019156357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05623798036078685</v>
+      </c>
+      <c r="F29">
+        <v>0.03777128558178459</v>
+      </c>
+      <c r="G29">
+        <v>-0.02638827876276341</v>
+      </c>
+      <c r="H29">
+        <v>0.1281157955083738</v>
+      </c>
+      <c r="I29">
+        <v>-0.0001488980545525909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0257840635258022</v>
+        <v>0.01251555131135695</v>
       </c>
       <c r="C30">
-        <v>-0.056729935248531</v>
+        <v>0.08364164295580639</v>
       </c>
       <c r="D30">
-        <v>0.1669317319023214</v>
+        <v>0.1567090172244245</v>
       </c>
       <c r="E30">
-        <v>-0.02174054248745033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06261117342764272</v>
+      </c>
+      <c r="F30">
+        <v>0.0370589379759911</v>
+      </c>
+      <c r="G30">
+        <v>-0.03534339920949824</v>
+      </c>
+      <c r="H30">
+        <v>0.05407315180841809</v>
+      </c>
+      <c r="I30">
+        <v>0.0766728545760969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04477741246934232</v>
+        <v>0.007665432205356759</v>
       </c>
       <c r="C31">
-        <v>-0.08250922003381543</v>
+        <v>0.09191194823412359</v>
       </c>
       <c r="D31">
-        <v>0.06909175738249511</v>
+        <v>0.03892458150871152</v>
       </c>
       <c r="E31">
-        <v>-0.01245860789815964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01933077976640033</v>
+      </c>
+      <c r="F31">
+        <v>0.01778718994871066</v>
+      </c>
+      <c r="G31">
+        <v>-0.01621095985608958</v>
+      </c>
+      <c r="H31">
+        <v>0.04741592007993132</v>
+      </c>
+      <c r="I31">
+        <v>-0.04579786116997848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0217210464835133</v>
+        <v>0.01080314799479483</v>
       </c>
       <c r="C32">
-        <v>-0.03090107819420055</v>
+        <v>0.0446355658441702</v>
       </c>
       <c r="D32">
-        <v>0.1038436995033297</v>
+        <v>0.1078168517077453</v>
       </c>
       <c r="E32">
-        <v>-0.06593876745716314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01260296551960984</v>
+      </c>
+      <c r="F32">
+        <v>0.05317259258104963</v>
+      </c>
+      <c r="G32">
+        <v>-0.02876860004289904</v>
+      </c>
+      <c r="H32">
+        <v>0.03779103933599789</v>
+      </c>
+      <c r="I32">
+        <v>-0.08057101290160702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01396486234106014</v>
+        <v>0.004479212193709596</v>
       </c>
       <c r="C33">
-        <v>-0.04001531206422063</v>
+        <v>0.0556990388534694</v>
       </c>
       <c r="D33">
-        <v>0.1390618326062056</v>
+        <v>0.1203445888923538</v>
       </c>
       <c r="E33">
-        <v>-0.03770122356996542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03342783561036386</v>
+      </c>
+      <c r="F33">
+        <v>0.02746004109389702</v>
+      </c>
+      <c r="G33">
+        <v>-0.01324031557202708</v>
+      </c>
+      <c r="H33">
+        <v>0.06462365147522767</v>
+      </c>
+      <c r="I33">
+        <v>-0.002463247615244329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02520973433639523</v>
+        <v>0.005169581345411001</v>
       </c>
       <c r="C34">
-        <v>-0.05754168358518677</v>
+        <v>0.06104148697139553</v>
       </c>
       <c r="D34">
-        <v>0.05174060310144907</v>
+        <v>0.02929443318036521</v>
       </c>
       <c r="E34">
-        <v>0.04696116837893149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02993503306014495</v>
+      </c>
+      <c r="F34">
+        <v>-0.03802531265115498</v>
+      </c>
+      <c r="G34">
+        <v>-0.002398453450838646</v>
+      </c>
+      <c r="H34">
+        <v>0.06044573027589868</v>
+      </c>
+      <c r="I34">
+        <v>0.02253920695216412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001012366450166237</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007196115018587941</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02779085978174934</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004666499465642483</v>
+      </c>
+      <c r="F35">
+        <v>0.01538799992532677</v>
+      </c>
+      <c r="G35">
+        <v>-0.01393465556197071</v>
+      </c>
+      <c r="H35">
+        <v>0.03512241653824003</v>
+      </c>
+      <c r="I35">
+        <v>0.03007925824077514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.00854873598367688</v>
+        <v>0.009275751422826254</v>
       </c>
       <c r="C36">
-        <v>-0.004733611362341846</v>
+        <v>0.01707728680353027</v>
       </c>
       <c r="D36">
-        <v>0.08705763170361339</v>
+        <v>0.07056957021450834</v>
       </c>
       <c r="E36">
-        <v>-0.04203548727350993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02767467292856675</v>
+      </c>
+      <c r="F36">
+        <v>0.04746961267683501</v>
+      </c>
+      <c r="G36">
+        <v>-0.01673378427389869</v>
+      </c>
+      <c r="H36">
+        <v>0.06436554064126822</v>
+      </c>
+      <c r="I36">
+        <v>-0.026676402157075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005956564468739248</v>
+        <v>0.01081082004404654</v>
       </c>
       <c r="C38">
-        <v>-0.005682769917331589</v>
+        <v>0.01610679466246285</v>
       </c>
       <c r="D38">
-        <v>0.08487072873981003</v>
+        <v>0.08353477927068062</v>
       </c>
       <c r="E38">
-        <v>-0.01050143578033484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004648385970572984</v>
+      </c>
+      <c r="F38">
+        <v>0.001714030570874471</v>
+      </c>
+      <c r="G38">
+        <v>-0.03695459936151008</v>
+      </c>
+      <c r="H38">
+        <v>0.05746233021741164</v>
+      </c>
+      <c r="I38">
+        <v>-0.01595681831639219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01960388425141644</v>
+        <v>0.002917493864931518</v>
       </c>
       <c r="C39">
-        <v>-0.05553342280752243</v>
+        <v>0.07321854247060426</v>
       </c>
       <c r="D39">
-        <v>0.1139383675821746</v>
+        <v>0.09797893496002762</v>
       </c>
       <c r="E39">
-        <v>0.01869682970242994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06051560398843338</v>
+      </c>
+      <c r="F39">
+        <v>-0.003258354171637173</v>
+      </c>
+      <c r="G39">
+        <v>-0.007237537277329354</v>
+      </c>
+      <c r="H39">
+        <v>0.1043689851585186</v>
+      </c>
+      <c r="I39">
+        <v>0.07347408345446264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01171650745311367</v>
+        <v>0.008754211058276841</v>
       </c>
       <c r="C40">
-        <v>-0.0147154805699804</v>
+        <v>0.02466787611934506</v>
       </c>
       <c r="D40">
-        <v>0.1204697391338588</v>
+        <v>0.09309612986161395</v>
       </c>
       <c r="E40">
-        <v>0.02044256806045382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04943915321546741</v>
+      </c>
+      <c r="F40">
+        <v>-0.02023506445555114</v>
+      </c>
+      <c r="G40">
+        <v>-0.07179375583898683</v>
+      </c>
+      <c r="H40">
+        <v>0.0619672221922914</v>
+      </c>
+      <c r="I40">
+        <v>-0.07748822722845845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01195584211492736</v>
+        <v>0.01341535097080698</v>
       </c>
       <c r="C41">
-        <v>-0.004659091790133747</v>
+        <v>0.01470824897755009</v>
       </c>
       <c r="D41">
-        <v>0.04967663516533104</v>
+        <v>0.03973030019201711</v>
       </c>
       <c r="E41">
-        <v>-0.03146709915260863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.007032912612039058</v>
+      </c>
+      <c r="F41">
+        <v>0.02433809910689229</v>
+      </c>
+      <c r="G41">
+        <v>-0.02227858615070192</v>
+      </c>
+      <c r="H41">
+        <v>0.03942583418131661</v>
+      </c>
+      <c r="I41">
+        <v>-0.0225300565103495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005458683927123538</v>
+        <v>0.007144984949037793</v>
       </c>
       <c r="C43">
-        <v>-0.005631335570463559</v>
+        <v>0.01284327100633488</v>
       </c>
       <c r="D43">
-        <v>0.05942577961648148</v>
+        <v>0.04705551919334063</v>
       </c>
       <c r="E43">
-        <v>-0.02059485824586303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009412673103221345</v>
+      </c>
+      <c r="F43">
+        <v>0.01944033743813602</v>
+      </c>
+      <c r="G43">
+        <v>-0.0226971001841475</v>
+      </c>
+      <c r="H43">
+        <v>0.05511801045697981</v>
+      </c>
+      <c r="I43">
+        <v>-0.005711163913583223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01700235121736221</v>
+        <v>0.01054509096868114</v>
       </c>
       <c r="C44">
-        <v>-0.02367099432844565</v>
+        <v>0.0424509050519981</v>
       </c>
       <c r="D44">
-        <v>0.1119298100156408</v>
+        <v>0.1116538739496007</v>
       </c>
       <c r="E44">
-        <v>-0.04516448360302344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.04310590076074441</v>
+      </c>
+      <c r="F44">
+        <v>0.03638762849356483</v>
+      </c>
+      <c r="G44">
+        <v>-0.0336380769011894</v>
+      </c>
+      <c r="H44">
+        <v>0.04843782748325742</v>
+      </c>
+      <c r="I44">
+        <v>0.06227773132027469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.007987176573909837</v>
+        <v>-0.001959803442131901</v>
       </c>
       <c r="C46">
-        <v>-0.02686420352943123</v>
+        <v>0.03808654582057056</v>
       </c>
       <c r="D46">
-        <v>0.09065171693364402</v>
+        <v>0.07873332329752222</v>
       </c>
       <c r="E46">
-        <v>-0.01842032137993257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04436160328713754</v>
+      </c>
+      <c r="F46">
+        <v>0.0335298705733283</v>
+      </c>
+      <c r="G46">
+        <v>-0.03549375180663661</v>
+      </c>
+      <c r="H46">
+        <v>0.1304951053909369</v>
+      </c>
+      <c r="I46">
+        <v>0.01266601903330026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0879605961861734</v>
+        <v>0.03205214204416638</v>
       </c>
       <c r="C47">
-        <v>-0.1014063838893851</v>
+        <v>0.125147973712504</v>
       </c>
       <c r="D47">
-        <v>0.0589408869661482</v>
+        <v>0.02353665977771257</v>
       </c>
       <c r="E47">
-        <v>-0.02828764574280632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01153586291091103</v>
+      </c>
+      <c r="F47">
+        <v>-0.003091135534824882</v>
+      </c>
+      <c r="G47">
+        <v>0.02385942796640883</v>
+      </c>
+      <c r="H47">
+        <v>0.06151538225956989</v>
+      </c>
+      <c r="I47">
+        <v>-0.1069273642407007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009047279345129779</v>
+        <v>0.00943330047792661</v>
       </c>
       <c r="C48">
-        <v>-0.01449717072317972</v>
+        <v>0.02630057146849201</v>
       </c>
       <c r="D48">
-        <v>0.09353352021606197</v>
+        <v>0.07461270734686253</v>
       </c>
       <c r="E48">
-        <v>-0.05448821461705283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02095180079661966</v>
+      </c>
+      <c r="F48">
+        <v>0.05987461867173537</v>
+      </c>
+      <c r="G48">
+        <v>-0.03322238205155805</v>
+      </c>
+      <c r="H48">
+        <v>0.1002323244926688</v>
+      </c>
+      <c r="I48">
+        <v>-0.01196240506649911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04262777619998265</v>
+        <v>0.01193951349396709</v>
       </c>
       <c r="C50">
-        <v>-0.05859118271274677</v>
+        <v>0.07415434193796096</v>
       </c>
       <c r="D50">
-        <v>0.06797076592628229</v>
+        <v>0.04468604820094019</v>
       </c>
       <c r="E50">
-        <v>-0.008872096859528141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01213430851440125</v>
+      </c>
+      <c r="F50">
+        <v>0.01070321561815048</v>
+      </c>
+      <c r="G50">
+        <v>-0.02870725606476244</v>
+      </c>
+      <c r="H50">
+        <v>0.03055891106229721</v>
+      </c>
+      <c r="I50">
+        <v>-0.07776074238072299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001809781820911163</v>
+        <v>0.0003800246032434459</v>
       </c>
       <c r="C51">
-        <v>-0.002099383237113987</v>
+        <v>0.01414925505778953</v>
       </c>
       <c r="D51">
-        <v>0.05738727872786912</v>
+        <v>0.0584953518735063</v>
       </c>
       <c r="E51">
-        <v>-0.001458116885171311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.04579555982652285</v>
+      </c>
+      <c r="F51">
+        <v>0.03596335311391273</v>
+      </c>
+      <c r="G51">
+        <v>-0.03081135931563711</v>
+      </c>
+      <c r="H51">
+        <v>0.03469727148373775</v>
+      </c>
+      <c r="I51">
+        <v>-0.008673124580841941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1148094498754797</v>
+        <v>0.05499112853663931</v>
       </c>
       <c r="C53">
-        <v>-0.1172590579474276</v>
+        <v>0.1576539208358813</v>
       </c>
       <c r="D53">
-        <v>0.01962512189700939</v>
+        <v>-0.01119953039291957</v>
       </c>
       <c r="E53">
-        <v>-0.05929348344903486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02713689647943027</v>
+      </c>
+      <c r="F53">
+        <v>0.04969041674513488</v>
+      </c>
+      <c r="G53">
+        <v>-0.001424426266047815</v>
+      </c>
+      <c r="H53">
+        <v>0.002921239023917791</v>
+      </c>
+      <c r="I53">
+        <v>-0.04668053813565441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01554849644159225</v>
+        <v>0.008475357271651706</v>
       </c>
       <c r="C54">
-        <v>-0.02120506109021973</v>
+        <v>0.03842472690247783</v>
       </c>
       <c r="D54">
-        <v>0.09816783059422568</v>
+        <v>0.08206256609688431</v>
       </c>
       <c r="E54">
-        <v>-0.001154123901295182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01946749451124233</v>
+      </c>
+      <c r="F54">
+        <v>0.0004887200384399588</v>
+      </c>
+      <c r="G54">
+        <v>-0.03779333037869995</v>
+      </c>
+      <c r="H54">
+        <v>0.08248925071223613</v>
+      </c>
+      <c r="I54">
+        <v>-0.003977624112165157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1014623540296782</v>
+        <v>0.04168849177415238</v>
       </c>
       <c r="C55">
-        <v>-0.09906895314767397</v>
+        <v>0.1301744674725157</v>
       </c>
       <c r="D55">
-        <v>0.008629306291453604</v>
+        <v>-0.02799354734417358</v>
       </c>
       <c r="E55">
-        <v>-0.01291215716992366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003794742476987472</v>
+      </c>
+      <c r="F55">
+        <v>0.01478843722993422</v>
+      </c>
+      <c r="G55">
+        <v>-0.01383634600441561</v>
+      </c>
+      <c r="H55">
+        <v>0.00452109905107361</v>
+      </c>
+      <c r="I55">
+        <v>-0.06206643551644921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1406434541192628</v>
+        <v>0.05783677066070501</v>
       </c>
       <c r="C56">
-        <v>-0.1333332237681446</v>
+        <v>0.1894125430655048</v>
       </c>
       <c r="D56">
-        <v>0.003076227467567555</v>
+        <v>-0.02309784000920474</v>
       </c>
       <c r="E56">
-        <v>-0.01312293027621145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02943741370344771</v>
+      </c>
+      <c r="F56">
+        <v>0.01889296899826813</v>
+      </c>
+      <c r="G56">
+        <v>-0.05810351203130693</v>
+      </c>
+      <c r="H56">
+        <v>-0.01336410793553662</v>
+      </c>
+      <c r="I56">
+        <v>-0.07570907166371375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.005083130118065667</v>
+        <v>0.002388624061703375</v>
       </c>
       <c r="C58">
-        <v>-0.01164406190259459</v>
+        <v>0.04763152581363435</v>
       </c>
       <c r="D58">
-        <v>0.2118063688956817</v>
+        <v>0.2796568479913688</v>
       </c>
       <c r="E58">
-        <v>-0.08252790852343966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02286857507914747</v>
+      </c>
+      <c r="F58">
+        <v>0.1110593520820019</v>
+      </c>
+      <c r="G58">
+        <v>-0.1034677464613792</v>
+      </c>
+      <c r="H58">
+        <v>-0.1153697535422714</v>
+      </c>
+      <c r="I58">
+        <v>0.0824429107780786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1683740306652824</v>
+        <v>0.251303663933399</v>
       </c>
       <c r="C59">
-        <v>0.1577911109393923</v>
+        <v>-0.06438603826114364</v>
       </c>
       <c r="D59">
-        <v>0.04500892095983372</v>
+        <v>0.05944940402940935</v>
       </c>
       <c r="E59">
-        <v>-0.03569612043062715</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02174252853945806</v>
+      </c>
+      <c r="F59">
+        <v>0.02640039512157153</v>
+      </c>
+      <c r="G59">
+        <v>-0.01141837373438874</v>
+      </c>
+      <c r="H59">
+        <v>-0.001995888226434287</v>
+      </c>
+      <c r="I59">
+        <v>-0.07670149518063678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1951045790847998</v>
+        <v>0.1485631478228845</v>
       </c>
       <c r="C60">
-        <v>-0.08988764813942623</v>
+        <v>0.1722716511793183</v>
       </c>
       <c r="D60">
-        <v>0.1922192410148607</v>
+        <v>0.09029508825994091</v>
       </c>
       <c r="E60">
-        <v>0.1725845166319136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.17353548725904</v>
+      </c>
+      <c r="F60">
+        <v>-0.2251547249430017</v>
+      </c>
+      <c r="G60">
+        <v>0.2658092611375762</v>
+      </c>
+      <c r="H60">
+        <v>-0.1596352348306934</v>
+      </c>
+      <c r="I60">
+        <v>-0.04943080708465988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02968682184977335</v>
+        <v>0.009352372042399875</v>
       </c>
       <c r="C61">
-        <v>-0.05148049723768791</v>
+        <v>0.07032320720017456</v>
       </c>
       <c r="D61">
-        <v>0.1001794098757303</v>
+        <v>0.07735119562988527</v>
       </c>
       <c r="E61">
-        <v>0.008696229737130762</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04135312407622511</v>
+      </c>
+      <c r="F61">
+        <v>-0.0150782695112782</v>
+      </c>
+      <c r="G61">
+        <v>0.008226467129107932</v>
+      </c>
+      <c r="H61">
+        <v>0.09321848720630516</v>
+      </c>
+      <c r="I61">
+        <v>0.02979280046746648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.009931288385014335</v>
+        <v>0.006254315976846344</v>
       </c>
       <c r="C63">
-        <v>-0.02463522237678404</v>
+        <v>0.03329596882232536</v>
       </c>
       <c r="D63">
-        <v>0.09335661996019261</v>
+        <v>0.0639913697531001</v>
       </c>
       <c r="E63">
-        <v>-0.01376108373418888</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05758300158495279</v>
+      </c>
+      <c r="F63">
+        <v>0.02750808476743885</v>
+      </c>
+      <c r="G63">
+        <v>-0.02234259564577218</v>
+      </c>
+      <c r="H63">
+        <v>0.06776411966343625</v>
+      </c>
+      <c r="I63">
+        <v>0.0129703196304929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06223610824094216</v>
+        <v>0.01807883733815887</v>
       </c>
       <c r="C64">
-        <v>-0.07805520869021264</v>
+        <v>0.1052210701595251</v>
       </c>
       <c r="D64">
-        <v>0.0377028041710374</v>
+        <v>0.0244476751866038</v>
       </c>
       <c r="E64">
-        <v>-0.01429191727566712</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02950226463232642</v>
+      </c>
+      <c r="F64">
+        <v>0.01804469040960641</v>
+      </c>
+      <c r="G64">
+        <v>0.03504520053903267</v>
+      </c>
+      <c r="H64">
+        <v>0.1122529825327287</v>
+      </c>
+      <c r="I64">
+        <v>0.06854295791155475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02659914831747709</v>
+        <v>0.01901804890737791</v>
       </c>
       <c r="C65">
-        <v>-0.01531813121293819</v>
+        <v>0.04110056615192305</v>
       </c>
       <c r="D65">
-        <v>0.1185585062314757</v>
+        <v>0.1178456631578875</v>
       </c>
       <c r="E65">
-        <v>-0.003394686315891995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04589707533034394</v>
+      </c>
+      <c r="F65">
+        <v>-0.008238654531820915</v>
+      </c>
+      <c r="G65">
+        <v>0.02431102572149791</v>
+      </c>
+      <c r="H65">
+        <v>0.03995308519580671</v>
+      </c>
+      <c r="I65">
+        <v>0.03892605488071366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02307314248901954</v>
+        <v>-5.361302588491569e-05</v>
       </c>
       <c r="C66">
-        <v>-0.06345241256459995</v>
+        <v>0.08943885928564276</v>
       </c>
       <c r="D66">
-        <v>0.120431977628621</v>
+        <v>0.1250635478953349</v>
       </c>
       <c r="E66">
-        <v>0.0210956976580289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04603100885870431</v>
+      </c>
+      <c r="F66">
+        <v>-0.00955451269590195</v>
+      </c>
+      <c r="G66">
+        <v>-0.01931669345080247</v>
+      </c>
+      <c r="H66">
+        <v>0.06127555601184571</v>
+      </c>
+      <c r="I66">
+        <v>0.07043791325903108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02620594726162071</v>
+        <v>0.02120295523931053</v>
       </c>
       <c r="C67">
-        <v>-0.01764280027807203</v>
+        <v>0.02876557113974861</v>
       </c>
       <c r="D67">
-        <v>0.03938777470010142</v>
+        <v>0.03360367599630018</v>
       </c>
       <c r="E67">
-        <v>0.01557852033609258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.009071834630964832</v>
+      </c>
+      <c r="F67">
+        <v>-0.02743245046301198</v>
+      </c>
+      <c r="G67">
+        <v>-0.02262183107013822</v>
+      </c>
+      <c r="H67">
+        <v>0.06122038111771128</v>
+      </c>
+      <c r="I67">
+        <v>-0.009105566573530687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1945903653303665</v>
+        <v>0.2742450545543562</v>
       </c>
       <c r="C68">
-        <v>0.1708299435160272</v>
+        <v>-0.06496749603141982</v>
       </c>
       <c r="D68">
-        <v>0.03409529226012818</v>
+        <v>0.03879480428475651</v>
       </c>
       <c r="E68">
-        <v>-0.01045330812208063</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0006794812637524046</v>
+      </c>
+      <c r="F68">
+        <v>0.02582874967828148</v>
+      </c>
+      <c r="G68">
+        <v>-0.04962928668885433</v>
+      </c>
+      <c r="H68">
+        <v>-0.05970096090241556</v>
+      </c>
+      <c r="I68">
+        <v>-0.09230008816783462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06569146121016128</v>
+        <v>0.01812178769350239</v>
       </c>
       <c r="C69">
-        <v>-0.1122747407807017</v>
+        <v>0.118523103368967</v>
       </c>
       <c r="D69">
-        <v>0.0832210226066243</v>
+        <v>0.03502238389858827</v>
       </c>
       <c r="E69">
-        <v>-0.01482014789987672</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007432026732204005</v>
+      </c>
+      <c r="F69">
+        <v>-0.006844633173922651</v>
+      </c>
+      <c r="G69">
+        <v>0.01476652435563841</v>
+      </c>
+      <c r="H69">
+        <v>0.05157970181246245</v>
+      </c>
+      <c r="I69">
+        <v>-0.0721636841945334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1996592431614411</v>
+        <v>0.2745716305819981</v>
       </c>
       <c r="C71">
-        <v>0.1926645913426194</v>
+        <v>-0.08120858204255381</v>
       </c>
       <c r="D71">
-        <v>0.02323498450110323</v>
+        <v>0.01973813499370911</v>
       </c>
       <c r="E71">
-        <v>-0.01493968592008217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001222972925366865</v>
+      </c>
+      <c r="F71">
+        <v>0.02069246670265117</v>
+      </c>
+      <c r="G71">
+        <v>-0.0389341893812194</v>
+      </c>
+      <c r="H71">
+        <v>0.01198662022520841</v>
+      </c>
+      <c r="I71">
+        <v>-0.1243534434406025</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1106705940127388</v>
+        <v>0.05530403894934936</v>
       </c>
       <c r="C72">
-        <v>-0.06570121140209834</v>
+        <v>0.1229133232525748</v>
       </c>
       <c r="D72">
-        <v>0.1033235697114548</v>
+        <v>0.05969101223234854</v>
       </c>
       <c r="E72">
-        <v>0.04968212847995072</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07832302081901982</v>
+      </c>
+      <c r="F72">
+        <v>-0.0306807182751988</v>
+      </c>
+      <c r="G72">
+        <v>0.02571813782903041</v>
+      </c>
+      <c r="H72">
+        <v>0.04911740962276861</v>
+      </c>
+      <c r="I72">
+        <v>0.08008833675221672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1796450941911497</v>
+        <v>0.1342765289588209</v>
       </c>
       <c r="C73">
-        <v>-0.05415152497704723</v>
+        <v>0.1435928694782935</v>
       </c>
       <c r="D73">
-        <v>0.2669224005634385</v>
+        <v>0.09465101479513159</v>
       </c>
       <c r="E73">
-        <v>0.2643401302428052</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3020038509987075</v>
+      </c>
+      <c r="F73">
+        <v>-0.3311713321507351</v>
+      </c>
+      <c r="G73">
+        <v>0.4376645705535723</v>
+      </c>
+      <c r="H73">
+        <v>-0.05673181293454105</v>
+      </c>
+      <c r="I73">
+        <v>0.01196954987007758</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1157994871595939</v>
+        <v>0.05009055403771451</v>
       </c>
       <c r="C74">
-        <v>-0.1095765908299971</v>
+        <v>0.1495278721695877</v>
       </c>
       <c r="D74">
-        <v>-0.01807887146740617</v>
+        <v>-0.03733507890488329</v>
       </c>
       <c r="E74">
-        <v>-0.04165001233961037</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01037075234808463</v>
+      </c>
+      <c r="F74">
+        <v>0.03634178012260998</v>
+      </c>
+      <c r="G74">
+        <v>0.00421520585612672</v>
+      </c>
+      <c r="H74">
+        <v>-0.01618524818683972</v>
+      </c>
+      <c r="I74">
+        <v>-0.08697037326458784</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2462007288832649</v>
+        <v>0.1113047144900606</v>
       </c>
       <c r="C75">
-        <v>-0.1852311804927068</v>
+        <v>0.2730747038444354</v>
       </c>
       <c r="D75">
-        <v>-0.1084532538799327</v>
+        <v>-0.1253277506271131</v>
       </c>
       <c r="E75">
-        <v>0.01935398085946871</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09002052557162309</v>
+      </c>
+      <c r="F75">
+        <v>-0.02474033822539183</v>
+      </c>
+      <c r="G75">
+        <v>-0.1036939219343092</v>
+      </c>
+      <c r="H75">
+        <v>-0.01296826280008715</v>
+      </c>
+      <c r="I75">
+        <v>-0.05926616897484987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1483948233389355</v>
+        <v>0.06370181094899612</v>
       </c>
       <c r="C76">
-        <v>-0.1304561183317144</v>
+        <v>0.184870434206237</v>
       </c>
       <c r="D76">
-        <v>0.0182275209845152</v>
+        <v>-0.02967582628247175</v>
       </c>
       <c r="E76">
-        <v>-0.01114967385707356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02186574154980034</v>
+      </c>
+      <c r="F76">
+        <v>0.00580869247847332</v>
+      </c>
+      <c r="G76">
+        <v>-0.04606721198698447</v>
+      </c>
+      <c r="H76">
+        <v>0.02362289448185859</v>
+      </c>
+      <c r="I76">
+        <v>-0.06792300190725618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01647104402051507</v>
+        <v>-0.0003523292539499091</v>
       </c>
       <c r="C77">
-        <v>-0.07558911688983097</v>
+        <v>0.09924996137816756</v>
       </c>
       <c r="D77">
-        <v>0.03408527656854154</v>
+        <v>0.3435572206097543</v>
       </c>
       <c r="E77">
-        <v>-0.2157837766486566</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8273906645792473</v>
+      </c>
+      <c r="F77">
+        <v>-0.2408436127743464</v>
+      </c>
+      <c r="G77">
+        <v>0.2388342751594327</v>
+      </c>
+      <c r="H77">
+        <v>-0.09572531362440723</v>
+      </c>
+      <c r="I77">
+        <v>-0.03216973519052044</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03002716729525442</v>
+        <v>0.01266545847784794</v>
       </c>
       <c r="C78">
-        <v>-0.06422578686034829</v>
+        <v>0.08563925362007127</v>
       </c>
       <c r="D78">
-        <v>0.150531140276872</v>
+        <v>0.1264524840606324</v>
       </c>
       <c r="E78">
-        <v>-0.04548935498048189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07098663021611307</v>
+      </c>
+      <c r="F78">
+        <v>0.0506436170989281</v>
+      </c>
+      <c r="G78">
+        <v>-0.03548863066146091</v>
+      </c>
+      <c r="H78">
+        <v>0.01652493223800606</v>
+      </c>
+      <c r="I78">
+        <v>-0.1101117215190409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1022386441622875</v>
+        <v>0.03310700426101736</v>
       </c>
       <c r="C79">
-        <v>-0.1645993507021792</v>
+        <v>0.1877030766925435</v>
       </c>
       <c r="D79">
-        <v>-0.09189819843877678</v>
+        <v>-0.06852654537025767</v>
       </c>
       <c r="E79">
-        <v>-0.801086760845624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05960046112843269</v>
+      </c>
+      <c r="F79">
+        <v>0.7644711904385885</v>
+      </c>
+      <c r="G79">
+        <v>0.4950895574580045</v>
+      </c>
+      <c r="H79">
+        <v>-0.1790197120292864</v>
+      </c>
+      <c r="I79">
+        <v>0.1115468006048289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.008193179470070021</v>
+        <v>0.004867867296452657</v>
       </c>
       <c r="C80">
-        <v>-0.04530260361228661</v>
+        <v>0.04463194823085673</v>
       </c>
       <c r="D80">
-        <v>0.0495517437739288</v>
+        <v>0.04103698461870421</v>
       </c>
       <c r="E80">
-        <v>0.006786605488354244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0459466702719276</v>
+      </c>
+      <c r="F80">
+        <v>0.007309558962608093</v>
+      </c>
+      <c r="G80">
+        <v>-0.02416031711325887</v>
+      </c>
+      <c r="H80">
+        <v>0.0207037080361648</v>
+      </c>
+      <c r="I80">
+        <v>-0.07719905494836551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1259394464223058</v>
+        <v>0.04359988509818762</v>
       </c>
       <c r="C81">
-        <v>-0.1259131315051788</v>
+        <v>0.1669011737390316</v>
       </c>
       <c r="D81">
-        <v>-0.07374748189825325</v>
+        <v>-0.07717751595073896</v>
       </c>
       <c r="E81">
-        <v>-0.06655781180743386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05707119535527532</v>
+      </c>
+      <c r="F81">
+        <v>0.06397768198148182</v>
+      </c>
+      <c r="G81">
+        <v>-0.06526324041051045</v>
+      </c>
+      <c r="H81">
+        <v>0.05444860844214464</v>
+      </c>
+      <c r="I81">
+        <v>-0.09837950108372295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2686592685717447</v>
+        <v>0.09449074313030977</v>
       </c>
       <c r="C82">
-        <v>-0.2814165209448291</v>
+        <v>0.3321125627768083</v>
       </c>
       <c r="D82">
-        <v>-0.2041288124247556</v>
+        <v>-0.2220663664105224</v>
       </c>
       <c r="E82">
-        <v>0.1321063520123946</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06268813577234017</v>
+      </c>
+      <c r="F82">
+        <v>-0.1032316772303314</v>
+      </c>
+      <c r="G82">
+        <v>-0.1194103295422847</v>
+      </c>
+      <c r="H82">
+        <v>0.08287271469777349</v>
+      </c>
+      <c r="I82">
+        <v>-0.04680266280116826</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004059973685965616</v>
+        <v>-0.009436302348032832</v>
       </c>
       <c r="C83">
-        <v>-0.05239588378291822</v>
+        <v>0.02925501997220022</v>
       </c>
       <c r="D83">
-        <v>0.01183498498130803</v>
+        <v>0.0384003007676029</v>
       </c>
       <c r="E83">
-        <v>-0.05701340838713569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.06604929849504561</v>
+      </c>
+      <c r="F83">
+        <v>0.07385512908725633</v>
+      </c>
+      <c r="G83">
+        <v>-0.08852069965319014</v>
+      </c>
+      <c r="H83">
+        <v>0.03083957019635635</v>
+      </c>
+      <c r="I83">
+        <v>-0.5695885337858441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.000818746064009349</v>
+        <v>-0.003646452574633944</v>
       </c>
       <c r="C84">
-        <v>0.001906119927196133</v>
+        <v>0.017167075545785</v>
       </c>
       <c r="D84">
-        <v>0.004459869925378839</v>
+        <v>0.04432614340496879</v>
       </c>
       <c r="E84">
-        <v>-0.0005802221338397202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001088369911249361</v>
+      </c>
+      <c r="F84">
+        <v>0.0299875408137261</v>
+      </c>
+      <c r="G84">
+        <v>-0.05382056702421856</v>
+      </c>
+      <c r="H84">
+        <v>0.001717781623279949</v>
+      </c>
+      <c r="I84">
+        <v>0.06186814681082733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1500073877088873</v>
+        <v>0.05857913511529775</v>
       </c>
       <c r="C85">
-        <v>-0.129741611415999</v>
+        <v>0.1854996173166418</v>
       </c>
       <c r="D85">
-        <v>-0.03898090764349901</v>
+        <v>-0.08714677806858065</v>
       </c>
       <c r="E85">
-        <v>-0.02858274114465698</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0009718792109178381</v>
+      </c>
+      <c r="F85">
+        <v>0.07311338910535045</v>
+      </c>
+      <c r="G85">
+        <v>-0.02009088524791143</v>
+      </c>
+      <c r="H85">
+        <v>-0.01322618258047777</v>
+      </c>
+      <c r="I85">
+        <v>-0.0563680955310444</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01380302679693845</v>
+        <v>0.00907184246088426</v>
       </c>
       <c r="C86">
-        <v>-0.01148171138867524</v>
+        <v>0.03041045897902767</v>
       </c>
       <c r="D86">
-        <v>0.07569066178635542</v>
+        <v>0.1042775871096098</v>
       </c>
       <c r="E86">
-        <v>-0.0508432304035787</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01957995487190839</v>
+      </c>
+      <c r="F86">
+        <v>0.0009079228015028193</v>
+      </c>
+      <c r="G86">
+        <v>0.006779456261692327</v>
+      </c>
+      <c r="H86">
+        <v>0.02848763783611134</v>
+      </c>
+      <c r="I86">
+        <v>-0.07277680935194364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01867013170728135</v>
+        <v>0.009003059496154679</v>
       </c>
       <c r="C87">
-        <v>-0.02511630992125443</v>
+        <v>0.05345295993521543</v>
       </c>
       <c r="D87">
-        <v>0.1332483007895457</v>
+        <v>0.1440248941116198</v>
       </c>
       <c r="E87">
-        <v>-0.04972727481985885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01714100565798102</v>
+      </c>
+      <c r="F87">
+        <v>0.04803504084374516</v>
+      </c>
+      <c r="G87">
+        <v>-0.0619906513633085</v>
+      </c>
+      <c r="H87">
+        <v>0.01653465670642367</v>
+      </c>
+      <c r="I87">
+        <v>0.006882275516394772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05936708737373372</v>
+        <v>0.03202181525969424</v>
       </c>
       <c r="C88">
-        <v>-0.04414025213143943</v>
+        <v>0.06866445801640471</v>
       </c>
       <c r="D88">
-        <v>0.02754802696586469</v>
+        <v>0.005761113746252211</v>
       </c>
       <c r="E88">
-        <v>-0.03009156364891388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02358065068600232</v>
+      </c>
+      <c r="F88">
+        <v>0.01707004788752624</v>
+      </c>
+      <c r="G88">
+        <v>0.00163347091594128</v>
+      </c>
+      <c r="H88">
+        <v>0.02660431682032004</v>
+      </c>
+      <c r="I88">
+        <v>-0.01368520777670404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2992170921150558</v>
+        <v>0.4101597786543562</v>
       </c>
       <c r="C89">
-        <v>0.3493990076570221</v>
+        <v>-0.1566594260527691</v>
       </c>
       <c r="D89">
-        <v>0.01086668278076858</v>
+        <v>0.03354697700445199</v>
       </c>
       <c r="E89">
-        <v>-0.09689570723763534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04756651866486482</v>
+      </c>
+      <c r="F89">
+        <v>0.06992941729296966</v>
+      </c>
+      <c r="G89">
+        <v>-0.0400980347890345</v>
+      </c>
+      <c r="H89">
+        <v>0.1059483711416201</v>
+      </c>
+      <c r="I89">
+        <v>0.2047480906698464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.238962555972685</v>
+        <v>0.3187370299305371</v>
       </c>
       <c r="C90">
-        <v>0.2570370145767638</v>
+        <v>-0.1069709910471726</v>
       </c>
       <c r="D90">
-        <v>0.03599899028176828</v>
+        <v>0.03385483113920811</v>
       </c>
       <c r="E90">
-        <v>0.00580989344749803</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007221057833510982</v>
+      </c>
+      <c r="F90">
+        <v>-0.006496464362000574</v>
+      </c>
+      <c r="G90">
+        <v>-0.06519836083076086</v>
+      </c>
+      <c r="H90">
+        <v>-0.03004263437022646</v>
+      </c>
+      <c r="I90">
+        <v>-0.07554666381175225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1659363238720726</v>
+        <v>0.06913348919541899</v>
       </c>
       <c r="C91">
-        <v>-0.1778374611792087</v>
+        <v>0.2132784106330998</v>
       </c>
       <c r="D91">
-        <v>-0.09589056281408119</v>
+        <v>-0.1018255043773922</v>
       </c>
       <c r="E91">
-        <v>-0.09562359352937848</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06476466800853727</v>
+      </c>
+      <c r="F91">
+        <v>0.07223365554661221</v>
+      </c>
+      <c r="G91">
+        <v>-0.005947576699686636</v>
+      </c>
+      <c r="H91">
+        <v>0.0008239623621071217</v>
+      </c>
+      <c r="I91">
+        <v>-0.09724153650971723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2242361502375123</v>
+        <v>0.3392044325874777</v>
       </c>
       <c r="C92">
-        <v>0.2732426887985647</v>
+        <v>-0.139276539307046</v>
       </c>
       <c r="D92">
-        <v>-0.05514297867330687</v>
+        <v>0.0008309366673301442</v>
       </c>
       <c r="E92">
-        <v>-0.05152546281574696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06749132719816611</v>
+      </c>
+      <c r="F92">
+        <v>0.02710191851286552</v>
+      </c>
+      <c r="G92">
+        <v>-0.02786975122480829</v>
+      </c>
+      <c r="H92">
+        <v>0.02059497696035285</v>
+      </c>
+      <c r="I92">
+        <v>0.2522954449793711</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2640217349042769</v>
+        <v>0.3360312913303902</v>
       </c>
       <c r="C93">
-        <v>0.2691504607601301</v>
+        <v>-0.1125683651047902</v>
       </c>
       <c r="D93">
-        <v>0.01503084034410053</v>
+        <v>-0.01682940093665735</v>
       </c>
       <c r="E93">
-        <v>-0.004090873880916459</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02596887807485597</v>
+      </c>
+      <c r="F93">
+        <v>0.006537171224329252</v>
+      </c>
+      <c r="G93">
+        <v>0.01905423819958798</v>
+      </c>
+      <c r="H93">
+        <v>0.002094407649111839</v>
+      </c>
+      <c r="I93">
+        <v>-0.04961357257664883</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3125396440457892</v>
+        <v>0.1338730536971967</v>
       </c>
       <c r="C94">
-        <v>-0.2540092394168459</v>
+        <v>0.365222345083539</v>
       </c>
       <c r="D94">
-        <v>-0.3567889736820816</v>
+        <v>-0.3350898320853347</v>
       </c>
       <c r="E94">
-        <v>0.2012874089057009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06911253749413677</v>
+      </c>
+      <c r="F94">
+        <v>-0.09122370300616656</v>
+      </c>
+      <c r="G94">
+        <v>-0.2923887553082895</v>
+      </c>
+      <c r="H94">
+        <v>-0.1209479858047557</v>
+      </c>
+      <c r="I94">
+        <v>0.3160845901953854</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01672839115549899</v>
+        <v>0.01773469382265812</v>
       </c>
       <c r="C95">
-        <v>-0.03736544348103103</v>
+        <v>0.06064596515954617</v>
       </c>
       <c r="D95">
-        <v>0.03012251909464924</v>
+        <v>0.1083545952744761</v>
       </c>
       <c r="E95">
-        <v>-0.08495602224808065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1525761027611666</v>
+      </c>
+      <c r="F95">
+        <v>-0.02091535866730025</v>
+      </c>
+      <c r="G95">
+        <v>0.01087585533508183</v>
+      </c>
+      <c r="H95">
+        <v>0.4157158407240897</v>
+      </c>
+      <c r="I95">
+        <v>0.3900220645574707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001042629292762237</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0004631575720952415</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.000558433579899678</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003273889854786027</v>
+      </c>
+      <c r="F97">
+        <v>-8.815390463028181e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.000481647445212243</v>
+      </c>
+      <c r="H97">
+        <v>0.003093717036318951</v>
+      </c>
+      <c r="I97">
+        <v>0.002776847762778924</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1520985710490343</v>
+        <v>0.1098226880228692</v>
       </c>
       <c r="C98">
-        <v>-0.07329689203149292</v>
+        <v>0.1461063723051072</v>
       </c>
       <c r="D98">
-        <v>0.1491543839958557</v>
+        <v>0.05906149728288432</v>
       </c>
       <c r="E98">
-        <v>0.1981874950790914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2067137452245719</v>
+      </c>
+      <c r="F98">
+        <v>-0.2445360427707383</v>
+      </c>
+      <c r="G98">
+        <v>0.2999613751554873</v>
+      </c>
+      <c r="H98">
+        <v>-0.1110866969811397</v>
+      </c>
+      <c r="I98">
+        <v>0.001775356247497389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001028855436463202</v>
+        <v>-0.003070318127864919</v>
       </c>
       <c r="C101">
-        <v>-0.01993765531076038</v>
+        <v>0.02882764977021048</v>
       </c>
       <c r="D101">
-        <v>0.09748473872912324</v>
+        <v>0.09453526271433803</v>
       </c>
       <c r="E101">
-        <v>-0.01563434903202579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05563368200123441</v>
+      </c>
+      <c r="F101">
+        <v>0.0384157053194944</v>
+      </c>
+      <c r="G101">
+        <v>-0.02726527939665683</v>
+      </c>
+      <c r="H101">
+        <v>0.129077711521303</v>
+      </c>
+      <c r="I101">
+        <v>-0.0003338723422593462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.11511597863945</v>
+        <v>0.03144074302421238</v>
       </c>
       <c r="C102">
-        <v>-0.1502380590294183</v>
+        <v>0.1535225771397421</v>
       </c>
       <c r="D102">
-        <v>-0.06678149498607823</v>
+        <v>-0.08918344156945039</v>
       </c>
       <c r="E102">
-        <v>0.0473125767906297</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03665214242595954</v>
+      </c>
+      <c r="F102">
+        <v>-0.0588313192423732</v>
+      </c>
+      <c r="G102">
+        <v>-0.01088311360607145</v>
+      </c>
+      <c r="H102">
+        <v>0.05759099811019854</v>
+      </c>
+      <c r="I102">
+        <v>-0.02962667220222853</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
